--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H2">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I2">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J2">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>13.73510936504326</v>
+        <v>81.70689530834811</v>
       </c>
       <c r="R2">
-        <v>13.73510936504326</v>
+        <v>735.3620577751331</v>
       </c>
       <c r="S2">
-        <v>0.003937982419485599</v>
+        <v>0.01857342946025575</v>
       </c>
       <c r="T2">
-        <v>0.003937982419485599</v>
+        <v>0.01857342946025575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H3">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I3">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J3">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>80.34592488106721</v>
+        <v>96.39306356015376</v>
       </c>
       <c r="R3">
-        <v>80.34592488106721</v>
+        <v>867.537572041384</v>
       </c>
       <c r="S3">
-        <v>0.02303591702474636</v>
+        <v>0.0219118565175679</v>
       </c>
       <c r="T3">
-        <v>0.02303591702474636</v>
+        <v>0.0219118565175679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H4">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I4">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J4">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>6.669346044912195</v>
+        <v>12.33769658187166</v>
       </c>
       <c r="R4">
-        <v>6.669346044912195</v>
+        <v>111.039269236845</v>
       </c>
       <c r="S4">
-        <v>0.001912162966912591</v>
+        <v>0.002804577707923494</v>
       </c>
       <c r="T4">
-        <v>0.001912162966912591</v>
+        <v>0.002804577707923494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H5">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I5">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J5">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>13.1789915008131</v>
+        <v>18.37626297279678</v>
       </c>
       <c r="R5">
-        <v>13.1789915008131</v>
+        <v>165.386366755171</v>
       </c>
       <c r="S5">
-        <v>0.003778538303367101</v>
+        <v>0.004177251170544457</v>
       </c>
       <c r="T5">
-        <v>0.003778538303367101</v>
+        <v>0.004177251170544458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H6">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I6">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J6">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>358.6498847701156</v>
+        <v>440.9597845614646</v>
       </c>
       <c r="R6">
-        <v>358.6498847701156</v>
+        <v>3968.638061053182</v>
       </c>
       <c r="S6">
-        <v>0.1028282268046435</v>
+        <v>0.1002379961012316</v>
       </c>
       <c r="T6">
-        <v>0.1028282268046435</v>
+        <v>0.1002379961012316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H7">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I7">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J7">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>7.065936023194827</v>
+        <v>10.23468884644356</v>
       </c>
       <c r="R7">
-        <v>7.065936023194827</v>
+        <v>92.112199617992</v>
       </c>
       <c r="S7">
-        <v>0.002025868968132791</v>
+        <v>0.002326526673418511</v>
       </c>
       <c r="T7">
-        <v>0.002025868968132791</v>
+        <v>0.002326526673418511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H8">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I8">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J8">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>1.496237993430077</v>
+        <v>7.428626042745445</v>
       </c>
       <c r="R8">
-        <v>1.496237993430077</v>
+        <v>66.85763438470902</v>
       </c>
       <c r="S8">
-        <v>0.000428985220058748</v>
+        <v>0.001688658726669966</v>
       </c>
       <c r="T8">
-        <v>0.000428985220058748</v>
+        <v>0.001688658726669966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H9">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I9">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J9">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>8.752505875948158</v>
+        <v>8.763862824559112</v>
       </c>
       <c r="R9">
-        <v>8.752505875948158</v>
+        <v>78.87476542103201</v>
       </c>
       <c r="S9">
-        <v>0.00250942408610517</v>
+        <v>0.001992181778012993</v>
       </c>
       <c r="T9">
-        <v>0.00250942408610517</v>
+        <v>0.001992181778012992</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H10">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I10">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J10">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>0.7265270831499355</v>
+        <v>1.121718476631667</v>
       </c>
       <c r="R10">
-        <v>0.7265270831499355</v>
+        <v>10.095466289685</v>
       </c>
       <c r="S10">
-        <v>0.0002083020094478576</v>
+        <v>0.0002549865457665376</v>
       </c>
       <c r="T10">
-        <v>0.0002083020094478576</v>
+        <v>0.0002549865457665375</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H11">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I11">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J11">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>1.435657137816065</v>
+        <v>1.670732747498111</v>
       </c>
       <c r="R11">
-        <v>1.435657137816065</v>
+        <v>15.036594727483</v>
       </c>
       <c r="S11">
-        <v>0.0004116161305214968</v>
+        <v>0.0003797872470308506</v>
       </c>
       <c r="T11">
-        <v>0.0004116161305214968</v>
+        <v>0.0003797872470308506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H12">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I12">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J12">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>39.06962585227846</v>
+        <v>40.09117378692067</v>
       </c>
       <c r="R12">
-        <v>39.06962585227846</v>
+        <v>360.820564082286</v>
       </c>
       <c r="S12">
-        <v>0.01120162174563567</v>
+        <v>0.009113436332394158</v>
       </c>
       <c r="T12">
-        <v>0.01120162174563567</v>
+        <v>0.009113436332394156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H13">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I13">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J13">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>0.7697297237368614</v>
+        <v>0.9305172570462223</v>
       </c>
       <c r="R13">
-        <v>0.7697297237368614</v>
+        <v>8.374655313416001</v>
       </c>
       <c r="S13">
-        <v>0.0002206886046022918</v>
+        <v>0.0002115231103822502</v>
       </c>
       <c r="T13">
-        <v>0.0002206886046022918</v>
+        <v>0.0002115231103822502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H14">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I14">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J14">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>23.07305382236924</v>
+        <v>134.0984839665912</v>
       </c>
       <c r="R14">
-        <v>23.07305382236924</v>
+        <v>1206.886355699321</v>
       </c>
       <c r="S14">
-        <v>0.006615257141496296</v>
+        <v>0.03048296870516684</v>
       </c>
       <c r="T14">
-        <v>0.006615257141496296</v>
+        <v>0.03048296870516684</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H15">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I15">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J15">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>134.9698644487685</v>
+        <v>158.2016259402675</v>
       </c>
       <c r="R15">
-        <v>134.9698644487685</v>
+        <v>1423.814633462408</v>
       </c>
       <c r="S15">
-        <v>0.03869710384049284</v>
+        <v>0.03596204125503115</v>
       </c>
       <c r="T15">
-        <v>0.03869710384049284</v>
+        <v>0.03596204125503115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H16">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I16">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J16">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>11.20356425016204</v>
+        <v>20.24879786491833</v>
       </c>
       <c r="R16">
-        <v>11.20356425016204</v>
+        <v>182.239180784265</v>
       </c>
       <c r="S16">
-        <v>0.003212165107691263</v>
+        <v>0.00460291163162838</v>
       </c>
       <c r="T16">
-        <v>0.003212165107691263</v>
+        <v>0.00460291163162838</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H17">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I17">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J17">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>22.13885395020659</v>
+        <v>30.15937634545855</v>
       </c>
       <c r="R17">
-        <v>22.13885395020659</v>
+        <v>271.434387109127</v>
       </c>
       <c r="S17">
-        <v>0.006347413429801859</v>
+        <v>0.006855762258542795</v>
       </c>
       <c r="T17">
-        <v>0.006347413429801859</v>
+        <v>0.006855762258542795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H18">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I18">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J18">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>602.4814127616769</v>
+        <v>723.7092827572593</v>
       </c>
       <c r="R18">
-        <v>602.4814127616769</v>
+        <v>6513.383544815333</v>
       </c>
       <c r="S18">
-        <v>0.1727369727073781</v>
+        <v>0.1645119822788185</v>
       </c>
       <c r="T18">
-        <v>0.1727369727073781</v>
+        <v>0.1645119822788184</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H19">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I19">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J19">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>11.86977968908793</v>
+        <v>16.79731255236711</v>
       </c>
       <c r="R19">
-        <v>11.86977968908793</v>
+        <v>151.175812971304</v>
       </c>
       <c r="S19">
-        <v>0.003403175212988069</v>
+        <v>0.003818327677681118</v>
       </c>
       <c r="T19">
-        <v>0.003403175212988069</v>
+        <v>0.003818327677681117</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H20">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I20">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J20">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>13.19366822723433</v>
+        <v>68.04371794464444</v>
       </c>
       <c r="R20">
-        <v>13.19366822723433</v>
+        <v>612.3934615018001</v>
       </c>
       <c r="S20">
-        <v>0.003782746256073288</v>
+        <v>0.01546754641317606</v>
       </c>
       <c r="T20">
-        <v>0.003782746256073288</v>
+        <v>0.01546754641317606</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H21">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I21">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J21">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>77.17867023243423</v>
+        <v>80.27403812071111</v>
       </c>
       <c r="R21">
-        <v>77.17867023243423</v>
+        <v>722.4663430864</v>
       </c>
       <c r="S21">
-        <v>0.02212783593177056</v>
+        <v>0.01824771555568548</v>
       </c>
       <c r="T21">
-        <v>0.02212783593177056</v>
+        <v>0.01824771555568548</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H22">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I22">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J22">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>6.4064389056222</v>
+        <v>10.27456425966666</v>
       </c>
       <c r="R22">
-        <v>6.4064389056222</v>
+        <v>92.47107833699999</v>
       </c>
       <c r="S22">
-        <v>0.001836785067475095</v>
+        <v>0.002335591063540091</v>
       </c>
       <c r="T22">
-        <v>0.001836785067475095</v>
+        <v>0.002335591063540091</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H23">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I23">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J23">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>12.65947265580593</v>
+        <v>15.30335046851111</v>
       </c>
       <c r="R23">
-        <v>12.65947265580593</v>
+        <v>137.7301542166</v>
       </c>
       <c r="S23">
-        <v>0.00362958746330779</v>
+        <v>0.003478723544197892</v>
       </c>
       <c r="T23">
-        <v>0.00362958746330779</v>
+        <v>0.003478723544197892</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H24">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I24">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J24">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>344.511824669976</v>
+        <v>367.2216780774667</v>
       </c>
       <c r="R24">
-        <v>344.511824669976</v>
+        <v>3304.9951026972</v>
       </c>
       <c r="S24">
-        <v>0.09877471469634692</v>
+        <v>0.08347601396808557</v>
       </c>
       <c r="T24">
-        <v>0.09877471469634692</v>
+        <v>0.08347601396808557</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H25">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I25">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J25">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>6.787395216681806</v>
+        <v>8.523225347022223</v>
       </c>
       <c r="R25">
-        <v>6.787395216681806</v>
+        <v>76.70902812320001</v>
       </c>
       <c r="S25">
-        <v>0.001946008752243337</v>
+        <v>0.001937480602577819</v>
       </c>
       <c r="T25">
-        <v>0.001946008752243337</v>
+        <v>0.001937480602577819</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H26">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I26">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J26">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N26">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q26">
-        <v>46.98071867247497</v>
+        <v>245.6022074774993</v>
       </c>
       <c r="R26">
-        <v>46.98071867247497</v>
+        <v>2210.419867297494</v>
       </c>
       <c r="S26">
-        <v>0.01346980495531151</v>
+        <v>0.05582974678760505</v>
       </c>
       <c r="T26">
-        <v>0.01346980495531151</v>
+        <v>0.05582974678760505</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H27">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I27">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J27">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N27">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q27">
-        <v>274.8219321008178</v>
+        <v>289.7472619238516</v>
       </c>
       <c r="R27">
-        <v>274.8219321008178</v>
+        <v>2607.725357314665</v>
       </c>
       <c r="S27">
-        <v>0.07879398032726745</v>
+        <v>0.06586470224251757</v>
       </c>
       <c r="T27">
-        <v>0.07879398032726745</v>
+        <v>0.06586470224251757</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H28">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I28">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J28">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N28">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q28">
-        <v>22.81238990807384</v>
+        <v>37.08579923713833</v>
       </c>
       <c r="R28">
-        <v>22.81238990807384</v>
+        <v>333.772193134245</v>
       </c>
       <c r="S28">
-        <v>0.006540522395335332</v>
+        <v>0.008430261283441749</v>
       </c>
       <c r="T28">
-        <v>0.006540522395335332</v>
+        <v>0.008430261283441747</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H29">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I29">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J29">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N29">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q29">
-        <v>45.0785265432569</v>
+        <v>55.23708536805457</v>
       </c>
       <c r="R29">
-        <v>45.0785265432569</v>
+        <v>497.1337683124911</v>
       </c>
       <c r="S29">
-        <v>0.01292442894378814</v>
+        <v>0.01255637121936837</v>
       </c>
       <c r="T29">
-        <v>0.01292442894378814</v>
+        <v>0.01255637121936837</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H30">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I30">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J30">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N30">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q30">
-        <v>1226.756110234095</v>
+        <v>1325.478052842292</v>
       </c>
       <c r="R30">
-        <v>1226.756110234095</v>
+        <v>11929.30247558062</v>
       </c>
       <c r="S30">
-        <v>0.3517222809592962</v>
+        <v>0.3013047188083295</v>
       </c>
       <c r="T30">
-        <v>0.3517222809592962</v>
+        <v>0.3013047188083295</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H31">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I31">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J31">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N31">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q31">
-        <v>24.16891949242788</v>
+        <v>30.76438241895912</v>
       </c>
       <c r="R31">
-        <v>24.16891949242788</v>
+        <v>276.8794417706321</v>
       </c>
       <c r="S31">
-        <v>0.006929451927144814</v>
+        <v>0.006993290891674458</v>
       </c>
       <c r="T31">
-        <v>0.006929451927144814</v>
+        <v>0.006993290891674457</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H32">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I32">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J32">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N32">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q32">
-        <v>1.399335519266538</v>
+        <v>7.717839427397444</v>
       </c>
       <c r="R32">
-        <v>1.399335519266538</v>
+        <v>69.46055484657701</v>
       </c>
       <c r="S32">
-        <v>0.0004012023877915457</v>
+        <v>0.001754402069120121</v>
       </c>
       <c r="T32">
-        <v>0.0004012023877915457</v>
+        <v>0.001754402069120121</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H33">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I33">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J33">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N33">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q33">
-        <v>8.185657902407556</v>
+        <v>9.10506002785511</v>
       </c>
       <c r="R33">
-        <v>8.185657902407556</v>
+        <v>81.945540250696</v>
       </c>
       <c r="S33">
-        <v>0.002346903548772929</v>
+        <v>0.002069741966336625</v>
       </c>
       <c r="T33">
-        <v>0.002346903548772929</v>
+        <v>0.002069741966336625</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H34">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I34">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J34">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N34">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q34">
-        <v>0.6794742264431936</v>
+        <v>1.165389539811666</v>
       </c>
       <c r="R34">
-        <v>0.6794742264431936</v>
+        <v>10.488505858305</v>
       </c>
       <c r="S34">
-        <v>0.0001948115218533934</v>
+        <v>0.0002649137545824773</v>
       </c>
       <c r="T34">
-        <v>0.0001948115218533934</v>
+        <v>0.0002649137545824773</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H35">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I35">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J35">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N35">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q35">
-        <v>1.342678126912861</v>
+        <v>1.735778190622111</v>
       </c>
       <c r="R35">
-        <v>1.342678126912861</v>
+        <v>15.622003715599</v>
       </c>
       <c r="S35">
-        <v>0.0003849581913244598</v>
+        <v>0.000394573232289689</v>
       </c>
       <c r="T35">
-        <v>0.0003849581913244598</v>
+        <v>0.000394573232289689</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H36">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I36">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J36">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N36">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q36">
-        <v>36.5393175548328</v>
+        <v>41.65201478212867</v>
       </c>
       <c r="R36">
-        <v>36.5393175548328</v>
+        <v>374.868133039158</v>
       </c>
       <c r="S36">
-        <v>0.01047615904079697</v>
+        <v>0.009468243231050227</v>
       </c>
       <c r="T36">
-        <v>0.01047615904079697</v>
+        <v>0.009468243231050227</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.31759400266203</v>
+        <v>3.688700333333333</v>
       </c>
       <c r="H37">
-        <v>3.31759400266203</v>
+        <v>11.066101</v>
       </c>
       <c r="I37">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="J37">
-        <v>0.01401043060113197</v>
+        <v>0.01417163244173325</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N37">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q37">
-        <v>0.7198788878438845</v>
+        <v>0.9667444198942222</v>
       </c>
       <c r="R37">
-        <v>0.7198788878438845</v>
+        <v>8.700699779048</v>
       </c>
       <c r="S37">
-        <v>0.0002063959105926736</v>
+        <v>0.0002197581883541063</v>
       </c>
       <c r="T37">
-        <v>0.0002063959105926736</v>
+        <v>0.0002197581883541062</v>
       </c>
     </row>
   </sheetData>
